--- a/dataset/Series.xlsx
+++ b/dataset/Series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choha\Desktop\DSKUS\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEB30BD-991B-4DB4-B741-92E9F1EC1482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD017F0-32F4-4E28-B6C6-E18367875A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="420" windowWidth="22140" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="388">
   <si>
     <t>BX.GRT.EXTA.CD.WD</t>
   </si>
@@ -292,780 +292,1006 @@
     <t>ER.H2O.INTR.PC</t>
   </si>
   <si>
+    <t>IE.PPI.ICTI.CD</t>
+  </si>
+  <si>
+    <t>IE.PPI.TRAN.CD</t>
+  </si>
+  <si>
+    <t>IE.PPI.WATR.CD</t>
+  </si>
+  <si>
+    <t>IE.PPN.ENGY.CD</t>
+  </si>
+  <si>
+    <t>IE.PPN.ICTI.CD</t>
+  </si>
+  <si>
+    <t>IE.PPN.TRAN.CD</t>
+  </si>
+  <si>
+    <t>IE.PPN.WATR.CD</t>
+  </si>
+  <si>
+    <t>IP.IDS.NRCT</t>
+  </si>
+  <si>
+    <t>IP.IDS.RSCT</t>
+  </si>
+  <si>
+    <t>IP.TMK.NRCT</t>
+  </si>
+  <si>
+    <t>IP.TMK.RSCT</t>
+  </si>
+  <si>
+    <t>IS.AIR.DPRT</t>
+  </si>
+  <si>
+    <t>IS.AIR.GOOD.MT.K1</t>
+  </si>
+  <si>
+    <t>IS.AIR.PSGR</t>
+  </si>
+  <si>
+    <t>IS.RRS.GOOD.MT.K6</t>
+  </si>
+  <si>
+    <t>IS.RRS.PASG.KM</t>
+  </si>
+  <si>
+    <t>IS.RRS.TOTL.KM</t>
+  </si>
+  <si>
+    <t>IS.SHP.GCNW.XQ</t>
+  </si>
+  <si>
+    <t>IS.SHP.GOOD.TU</t>
+  </si>
+  <si>
+    <t>IT.CEL.SETS</t>
+  </si>
+  <si>
+    <t>IT.CEL.SETS.P2</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2</t>
+  </si>
+  <si>
+    <t>IT.NET.BBND</t>
+  </si>
+  <si>
+    <t>IT.NET.BBND.P2</t>
+  </si>
+  <si>
+    <t>IT.NET.SECR</t>
+  </si>
+  <si>
+    <t>IT.NET.SECR.P6</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.ZS</t>
+  </si>
+  <si>
+    <t>TM.VAL.ICTG.ZS.UN</t>
+  </si>
+  <si>
+    <t>TX.VAL.ICTG.ZS.UN</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Australia (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Austria (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Belgium (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Canada (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, European Union institutions (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Switzerland (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Czech Republic (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Germany (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Denmark (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Spain (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Finland (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, France (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, United Kingdom (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Greece (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Hungary (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Ireland (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Iceland (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Italy (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Japan (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Korea, Rep. (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Luxembourg (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Netherlands (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Norway (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, New Zealand (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Poland (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Portugal (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Slovak Republic (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Slovenia (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Sweden (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, Total (current US$)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors, United States (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, FAO (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, IAEA (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, IFAD (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, ILO (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, UNAIDS (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, UNICEF (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, UNHCR (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, UNDP (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, UNECE (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, UNEP (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, UNFPA (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, UNIDIR (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, UNPBF (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, UNRWA (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, UNTA (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, UNWTO (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, WFP (current US$)</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies, WHO (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official aid received (constant 2018 US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of gross capital formation)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (constant 2018 US$)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of imports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of central government expense)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care (%)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Net migration</t>
+  </si>
+  <si>
+    <t>ICT service exports (BoP, current US$)</t>
+  </si>
+  <si>
+    <t>ICT service exports (% of service exports, BoP)</t>
+  </si>
+  <si>
+    <t>Electricity production from coal sources (% of total)</t>
+  </si>
+  <si>
+    <t>Electricity production from hydroelectric sources (% of total)</t>
+  </si>
+  <si>
+    <t>Electric power transmission and distribution losses (% of output)</t>
+  </si>
+  <si>
+    <t>Electricity production from natural gas sources (% of total)</t>
+  </si>
+  <si>
+    <t>Electricity production from nuclear sources (% of total)</t>
+  </si>
+  <si>
+    <t>Electricity production from oil sources (% of total)</t>
+  </si>
+  <si>
+    <t>Electric power consumption (kWh per capita)</t>
+  </si>
+  <si>
+    <t>Annual freshwater withdrawals, domestic (% of total freshwater withdrawal)</t>
+  </si>
+  <si>
+    <t>Annual freshwater withdrawals, industry (% of total freshwater withdrawal)</t>
+  </si>
+  <si>
+    <t>Annual freshwater withdrawals, total (billion cubic meters)</t>
+  </si>
+  <si>
+    <t>Annual freshwater withdrawals, total (% of internal resources)</t>
+  </si>
+  <si>
+    <t>Renewable internal freshwater resources, total (billion cubic meters)</t>
+  </si>
+  <si>
+    <t>Renewable internal freshwater resources per capita (cubic meters)</t>
+  </si>
+  <si>
+    <t>Investment in energy with private participation (current US$)</t>
+  </si>
+  <si>
+    <t>Investment in ICT with private participation (current US$)</t>
+  </si>
+  <si>
+    <t>Investment in transport with private participation (current US$)</t>
+  </si>
+  <si>
+    <t>Investment in water and sanitation with private participation (current US$)</t>
+  </si>
+  <si>
+    <t>Public private partnerships investment in energy (current US$)</t>
+  </si>
+  <si>
+    <t>Public private partnerships investment in ICT (current US$)</t>
+  </si>
+  <si>
+    <t>Public private partnerships investment in transport (current US$)</t>
+  </si>
+  <si>
+    <t>Public private partnerships investment in water and sanitation (current US$)</t>
+  </si>
+  <si>
+    <t>Industrial design applications, resident, by count</t>
+  </si>
+  <si>
+    <t>Trademark applications, nonresident, by count</t>
+  </si>
+  <si>
+    <t>Trademark applications, resident, by count</t>
+  </si>
+  <si>
+    <t>Air transport, registered carrier departures worldwide</t>
+  </si>
+  <si>
+    <t>Air transport, freight (million ton-km)</t>
+  </si>
+  <si>
+    <t>Air transport, passengers carried</t>
+  </si>
+  <si>
+    <t>Railways, goods transported (million ton-km)</t>
+  </si>
+  <si>
+    <t>Railways, passengers carried (million passenger-km)</t>
+  </si>
+  <si>
+    <t>Rail lines (total route-km)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Fixed broadband subscriptions</t>
+  </si>
+  <si>
+    <t>Fixed broadband subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Secure Internet servers</t>
+  </si>
+  <si>
+    <t>Secure Internet servers (per 1 million people)</t>
+  </si>
+  <si>
+    <t>Individuals using the Internet (% of population)</t>
+  </si>
+  <si>
+    <t>ICT goods imports (% total goods imports)</t>
+  </si>
+  <si>
+    <t>ICT goods exports (% of total goods exports)</t>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors are the net disbursements of official development assistance (ODA) or official aid from the members of the Development Assistance Committee (DAC). Net disbursements are gross disbursements of grants and loans minus repayments of principal on earlier loans. ODA consists of loans made on concessional terms (with a grant element of at least 25 percent, calculated at a rate of discount of 10 percent) and grants made to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. Official aid refers to aid flows from official donors to countries and territories in part II of the DAC list of recipients: more advanced countries of Central and Eastern Europe, the countries of the former Soviet Union, and certain advanced developing countries and territories. Official aid is provided under terms and conditions similar to those for ODA. Part II of the DAC List was abolished in 2005. The collection of data on official aid and other resource flows to Part II countries ended with 2004 data. DAC members are Australia, Austria, Belgium, Canada, Czech Republic, Denmark, Finland, France, Germany, Greece, Hungary, Iceland, Ireland, Italy, Japan, Korea, Luxembourg, The Netherlands, New Zealand, Norway, Poland, Portugal, Slovak Republic, Slovienia, Spain, Sweden, Switzerland, United Kingdom, United States, and European Union Institutions. Regional aggregates include data for economies not specified elsewhere. World and income group totals include aid not allocated by country or region. Data are in current U.S. dollars.</t>
+  </si>
+  <si>
+    <t>Net official flows from UN agencies are the net disbursements of total official flows from the UN agencies. Total official flows are the sum of Official Development Assistance (ODA) or official aid and Other Official Flows (OOF) and represent the total disbursements by the official sector at large to the recipient country. Net disbursements are gross disbursements of grants and loans minus repayments of principal on earlier loans. ODA consists of loans made on concessional terms (with a grant element of at least 25 percent, calculated at a rate of discount of 10 percent) and grants made to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. Official aid refers to aid flows from official donors to countries and territories in part II of the DAC list of recipients: more advanced countries of Central and Eastern Europe, the countries of the former Soviet Union, and certain advanced developing countries and territories. Official aid is provided under terms and conditions similar to those for ODA. Part II of the DAC List was abolished in 2005. The collection of data on official aid and other resource flows to Part II countries ended with 2004 data. OOF are transactions by the official sector whose main objective is other than development-motivated, or, if development-motivated, whose grant element is below the 25 per cent threshold which would make them eligible to be recorded as ODA. The main classes of transactions included here are official export credits, official sector equity and portfolio investment, and debt reorganization undertaken by the official sector at nonconcessional terms (irrespective of the nature or the identity of the original creditor). UN agencies are United Nations includes the United Nations Children’s Fund (UNICEF), United Nations Relief and Works Agency for Palestine Refugees in the Near East (UNRWA), World Food Programme (WFP), International Fund for Agricultural Development (IFAD), United Nations Development Programme(UNDP), United Nations Population Fund (UNFPA), United Nations Refugee Agency (UNHCR), Joint United Nations Programme on HIV/AIDS (UNAIDS), United Nations Regular Programme for Technical Assistance (UNTA), United Nations Peacebuilding Fund (UNPBF), International Atomic Energy Agency (IAEA), World Health Organization (WHO), United Nations Economic Commission for Europe (UNECE), Food and Agriculture Organization of the United Nations (FAO), International Labour Organization (ILO), United Nations Environment Programme (UNEP), World Tourism Organization (UNWTO) and United Nations Institute for Disarmament Research (UNIDIR). Data are in current U.S. dollars.</t>
+  </si>
+  <si>
+    <t>Net official development assistance (ODA) consists of disbursements of loans made on concessional terms (net of repayments of principal) and grants by official agencies of the members of the Development Assistance Committee (DAC), by multilateral institutions, and by non-DAC countries to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. It includes loans with a grant element of at least 25 percent (calculated at a rate of discount of 10 percent). Net official aid refers to aid flows (net of repayments) from official donors to countries and territories in part II of the DAC list of recipients: more advanced countries of Central and Eastern Europe, the countries of the former Soviet Union, and certain advanced developing countries and territories. Official aid is provided under terms and conditions similar to those for ODA. Part II of the DAC List was abolished in 2005. The collection of data on official aid and other resource flows to Part II countries ended with 2004 data. Data are in constant 2018 U.S. dollars.</t>
+  </si>
+  <si>
+    <t>Net official aid refers to aid flows (net of repayments) from official donors to countries and territories in part II of the DAC list of recipients: more advanced countries of Central and Eastern Europe, the countries of the former Soviet Union, and certain advanced developing countries and territories. Official aid is provided under terms and conditions similar to those for ODA. Part II of the DAC List was abolished in 2005. The collection of data on official aid and other resource flows to Part II countries ended with 2004 data. Data are in current U.S. dollars.</t>
+  </si>
+  <si>
+    <t>Net official aid refers to aid flows (net of repayments) from official donors to countries and territories in part II of the DAC list of recipients: more advanced countries of Central and Eastern Europe, the countries of the former Soviet Union, and certain advanced developing countries and territories. Official aid is provided under terms and conditions similar to those for ODA. Part II of the DAC List was abolished in 2005. The collection of data on official aid and other resource flows to Part II countries ended with 2004 data. Data are in constant 2018 U.S. dollars.</t>
+  </si>
+  <si>
+    <t>Net official development assistance (ODA) consists of disbursements of loans made on concessional terms (net of repayments of principal) and grants by official agencies of the members of the Development Assistance Committee (DAC), by multilateral institutions, and by non-DAC countries to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. It includes loans with a grant element of at least 25 percent (calculated at a rate of discount of 10 percent). Data are in current U.S. dollars.</t>
+  </si>
+  <si>
+    <t>Net official development assistance (ODA) consists of disbursements of loans made on concessional terms (net of repayments of principal) and grants by official agencies of the members of the Development Assistance Committee (DAC), by multilateral institutions, and by non-DAC countries to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. It includes loans with a grant element of at least 25 percent (calculated at a rate of discount of 10 percent).</t>
+  </si>
+  <si>
+    <t>Net official development assistance (ODA) consists of disbursements of loans made on concessional terms (net of repayments of principal) and grants by official agencies of the members of the Development Assistance Committee (DAC), by multilateral institutions, and by non-DAC countries to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. It includes loans with a grant element of at least 25 percent (calculated at a rate of discount of 10 percent). Data are in constant 2018 U.S. dollars.</t>
+  </si>
+  <si>
+    <t>Net official development assistance (ODA) per capita consists of disbursements of loans made on concessional terms (net of repayments of principal) and grants by official agencies of the members of the Development Assistance Committee (DAC), by multilateral institutions, and by non-DAC countries to promote economic development and welfare in countries and territories in the DAC list of ODA recipients; and is calculated by dividing net ODA received by the midyear population estimate. It includes loans with a grant element of at least 25 percent (calculated at a rate of discount of 10 percent).</t>
+  </si>
+  <si>
+    <t>Gender parity index for gross enrollment ratio in primary and secondary education is the ratio of girls to boys enrolled at primary and secondary levels in public and private schools.</t>
+  </si>
+  <si>
+    <t>Primary completion rate, or gross intake ratio to the last grade of primary education, is the number of new entrants (enrollments minus repeaters) in the last grade of primary education, regardless of age, divided by the population at the entrance age for the last grade of primary education. Data limitations preclude adjusting for students who drop out during the final year of primary education.</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV refers to the percentage of people ages 15-49 who are infected with HIV.</t>
+  </si>
+  <si>
+    <t>Under-five mortality rate is the probability per 1,000 that a newborn baby will die before reaching age five, if subject to age-specific mortality rates of the specified year.</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care are the percentage of women attended at least once during pregnancy by skilled health personnel for reasons related to pregnancy.</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio is the number of women who die from pregnancy-related causes while pregnant or within 42 days of pregnancy termination per 100,000 live births. The data are estimated with a regression model using information on the proportion of maternal deaths among non-AIDS deaths in women ages 15-49, fertility, birth attendants, and GDP measured using purchasing power parities (PPPs).</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day is the percentage of the population living on less than $1.90 a day at 2011 international prices. As a result of revisions in PPP exchange rates, poverty rates for individual countries cannot be compared with poverty rates reported in earlier editions.</t>
+  </si>
+  <si>
+    <t>Vulnerable employment is contributing family workers and own-account workers as a percentage of total employment.</t>
+  </si>
+  <si>
+    <t>Net migration is the net total of migrants during the period, that is, the total number of immigrants less the annual number of emigrants, including both citizens and noncitizens. Data are five-year estimates.</t>
+  </si>
+  <si>
+    <t>Information and communication technology service exports include computer and communications services (telecommunications and postal and courier services) and information services (computer data and news-related service transactions). Data are in current U.S. dollars.</t>
+  </si>
+  <si>
+    <t>Information and communication technology service exports include computer and communications services (telecommunications and postal and courier services) and information services (computer data and news-related service transactions).</t>
+  </si>
+  <si>
+    <t>Sources of electricity refer to the inputs used to generate electricity. Coal refers to all coal and brown coal, both primary (including hard coal and lignite-brown coal) and derived fuels (including patent fuel, coke oven coke, gas coke, coke oven gas, and blast furnace gas). Peat is also included in this category.</t>
+  </si>
+  <si>
+    <t>Sources of electricity refer to the inputs used to generate electricity. Hydropower refers to electricity produced by hydroelectric power plants.</t>
+  </si>
+  <si>
+    <t>Sources of electricity refer to the inputs used to generate electricity. Gas refers to natural gas but excludes natural gas liquids.</t>
+  </si>
+  <si>
+    <t>Sources of electricity refer to the inputs used to generate electricity. Nuclear power refers to electricity produced by nuclear power plants.</t>
+  </si>
+  <si>
+    <t>Sources of electricity refer to the inputs used to generate electricity. Oil refers to crude oil and petroleum products.</t>
+  </si>
+  <si>
+    <t>Electric power consumption measures the production of power plants and combined heat and power plants less transmission, distribution, and transformation losses and own use by heat and power plants.</t>
+  </si>
+  <si>
+    <t>Annual freshwater withdrawals refer to total water withdrawals, not counting evaporation losses from storage basins. Withdrawals also include water from desalination plants in countries where they are a significant source. Withdrawals can exceed 100 percent of total renewable resources where extraction from nonrenewable aquifers or desalination plants is considerable or where there is significant water reuse. Withdrawals for domestic uses include drinking water, municipal use or supply, and use for public services, commercial establishments, and homes. Data are for the most recent year available for 1987-2002.</t>
+  </si>
+  <si>
+    <t>Annual freshwater withdrawals refer to total water withdrawals, not counting evaporation losses from storage basins. Withdrawals also include water from desalination plants in countries where they are a significant source. Withdrawals can exceed 100 percent of total renewable resources where extraction from nonrenewable aquifers or desalination plants is considerable or where there is significant water reuse. Withdrawals for industry are total withdrawals for direct industrial use (including withdrawals for cooling thermoelectric plants). Data are for the most recent year available for 1987-2002.</t>
+  </si>
+  <si>
+    <t>Annual freshwater withdrawals refer to total water withdrawals, not counting evaporation losses from storage basins. Withdrawals also include water from desalination plants in countries where they are a significant source. Withdrawals can exceed 100 percent of total renewable resources where extraction from nonrenewable aquifers or desalination plants is considerable or where there is significant water reuse. Withdrawals for agriculture and industry are total withdrawals for irrigation and livestock production and for direct industrial use (including withdrawals for cooling thermoelectric plants). Withdrawals for domestic uses include drinking water, municipal use or supply, and use for public services, commercial establishments, and homes. Data are for the most recent year available for 1987-2002.</t>
+  </si>
+  <si>
+    <t>Renewable internal freshwater resources flows refer to internal renewable resources (internal river flows and groundwater from rainfall) in the country. Renewable internal freshwater resources per capita are calculated using the World Bank's population estimates.</t>
+  </si>
+  <si>
+    <t>Investment in ICT projects with private participation refers to commitments to projects in ICT backbone infrastructure (including land based and submarine cables) that have reached financial closure and directly or indirectly serve the public. Movable assets and small projects are excluded. The types of projects included are operations and management contracts, operations and management contracts with major capital expenditure, greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility), and divestitures. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars and available 2015 onwards only.</t>
+  </si>
+  <si>
+    <t>Investment  in transport projects with private participation refers to commitments to  infrastructure projects in transport that have reached financial closure and directly or indirectly serve the public. Movable assets and small projects are excluded. The types of projects included are  management and lease contracts, operations and management contracts with major capital expenditure, greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility), and divestitures. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars.</t>
+  </si>
+  <si>
+    <t>Public Private Partnerships in transport (current US$) refers to commitments to  infrastructure projects in transport that have reached financial closure and directly or indirectly serve the public. Movable assets and small projects are excluded. The types of projects included are  management and lease contracts, operations and management contracts with major capital expenditure,  and greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility). It excludes divestitures and merchant projects. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars.</t>
+  </si>
+  <si>
+    <t>Public Private Partnerships in water and sanitation (current US$) refers to commitments to  infrastructure projects in water and sanitation that have reached financial closure and directly or indirectly serve the public. Movable assets, incinerators, standalone solid waste projects, and small projects are excluded. The types of projects included are management and lease contracts, operations and management contracts with major capital expenditure, and greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility). It excludes divestitures and merchant projects. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars.</t>
+  </si>
+  <si>
+    <t>Industrial design applications are applications to register an industrial design with a national or regional Intellectual Property (IP) offices and designations received by relevant offices through the Hague System. Industrial designs are applied to a wide variety of industrial products and handicrafts. They refer to the ornamental or aesthetic aspects of a useful article, including compositions of lines or colors or any three-dimensional forms that give a special appearance to a product or handicraft. The holder of a registered industrial design has exclusive rights against unauthorized copying or imitation of the design by third parties. Industrial design registrations are valid for a limited period. The term of protection is usually 15 years for most jurisdictions. However, differences in legislation do exist, notably in China (which provides for a 10-year term from the application date). Resident application refers to an application filed with the IP office of or acting on behalf of the state or jurisdiction in which the first-named applicant in the application has residence. Design count is used to render application data for industrial applications across offices comparable, as some offices follow a single-class/single-design filing system while other have a multiple class/design filing system.</t>
+  </si>
+  <si>
+    <t>Trademark applications filed are applications to register a trademark with a national or regional Intellectual Property (IP) offices and designations received by relevant offices through the Madrid System. A trademark is a distinctive sign which identifies certain goods or services as those produced or provided by a specific person or enterprise. A trademark provides protection to the owner of the mark by ensuring the exclusive right to use it to identify goods or services, or to authorize another to use it in return for payment. The period of protection varies, but a trademark can be renewed indefinitely beyond the time limit on payment of additional fees. Non-resident application refers to an application filed with the IP office of or acting on behalf of a state or jurisdiction in which the first-named applicant in the application is not domiciled. Class count is used to render application data for trademark applications across offices comparable, as some offices follow a single-class/single-design filing system while other have a multiple class/design filing system.</t>
+  </si>
+  <si>
+    <t>Trademark applications filed are applications to register a trademark with a national or regional Intellectual Property (IP) offices and designations received by relevant offices through the Madrid System. A trademark is a distinctive sign which identifies certain goods or services as those produced or provided by a specific person or enterprise. A trademark provides protection to the owner of the mark by ensuring the exclusive right to use it to identify goods or services, or to authorize another to use it in return for payment. The period of protection varies, but a trademark can be renewed indefinitely beyond the time limit on payment of additional fees. Resident application refers to an application filed with the IP office of or acting on behalf of the state or jurisdiction in which the first-named applicant in the application has residence. Class count is used to render application data for trademark applications across offices comparable, as some offices follow a single-class/single-design filing system while other have a multiple class/design filing system.</t>
+  </si>
+  <si>
+    <t>Air passengers carried include both domestic and international aircraft passengers of air carriers registered in the country.</t>
+  </si>
+  <si>
+    <t>Goods transported by railway are the volume of goods transported by railway, measured in metric tons times kilometers traveled.</t>
+  </si>
+  <si>
+    <t>Passengers carried by railway are the number of passengers transported by rail times kilometers traveled.</t>
+  </si>
+  <si>
+    <t>Rail lines are the length of railway route available for train service, irrespective of the number of parallel tracks.</t>
+  </si>
+  <si>
+    <t>Mobile cellular telephone subscriptions are subscriptions to a public mobile telephone service that provide access to the PSTN using cellular technology. The indicator includes (and is split into) the number of postpaid subscriptions, and the number of active prepaid accounts (i.e. that have been used during the last three months). The indicator applies to all mobile cellular subscriptions that offer voice communications. It excludes subscriptions via data cards or USB modems, subscriptions to public mobile data services, private trunked mobile radio, telepoint, radio paging and telemetry services.</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions refers to the sum of active number of analogue fixed telephone lines, voice-over-IP (VoIP) subscriptions, fixed wireless local loop (WLL) subscriptions, ISDN voice-channel equivalents and fixed public payphones.</t>
+  </si>
+  <si>
+    <t>Fixed broadband subscriptions refers to fixed subscriptions to high-speed access to the public Internet (a TCP/IP connection), at downstream speeds equal to, or greater than, 256 kbit/s. This includes cable modem, DSL, fiber-to-the-home/building, other fixed (wired)-broadband subscriptions, satellite broadband and terrestrial fixed wireless broadband. This total is measured irrespective of the method of payment. It excludes subscriptions that have access to data communications (including the Internet) via mobile-cellular networks. It should include fixed WiMAX and any other fixed wireless technologies. It includes both residential subscriptions and subscriptions for organizations.</t>
+  </si>
+  <si>
+    <t>The number of distinct, publicly-trusted TLS/SSL certificates found in the Netcraft Secure Server Survey.</t>
+  </si>
+  <si>
+    <t>Internet users are individuals who have used the Internet (from any location) in the last 3 months. The Internet can be used via a computer, mobile phone, personal digital assistant, games machine, digital TV etc.</t>
+  </si>
+  <si>
+    <t>Information and communication technology goods imports include computers and peripheral equipment, communication equipment, consumer electronic equipment, electronic components, and other information and technology goods (miscellaneous).</t>
+  </si>
+  <si>
+    <t>Information and communication technology goods exports include computers and peripheral equipment, communication equipment, consumer electronic equipment, electronic components, and other information and technology goods (miscellaneous).</t>
+  </si>
+  <si>
+    <t>sourceNote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Series_Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Series_Code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New_Series_Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grants, excluding technical cooperation (BoP, current US$)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technical cooperation grants (BoP, current US$)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechCoopGrants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grants are defined as legally binding commitments that obligate a specific value of funds available for disbursement for which there is no repayment requirement. Data are in current U.S. dollars.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technical cooperation grants include free-standing technical cooperation grants, which are intended to finance the transfer of technical and managerial skills or of technology for the purpose of building up general national capacity without reference to any specific investment projects; and investment-related technical cooperation grants, which are provided to strengthen the capacity to execute specific investment projects. Data are in current U.S. dollars.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net bilateral aid flows from DAC donors are the net disbursements of official development assistance (ODA) or official aid from the members of the Development Assistance Committee (DAC). Net disbursements are gross disbursements of grants and loans minus repayments of principal on earlier loans. ODA consists of loans made on concessional terms (with a grant element of at least 25 percent, calculated at a rate of discount of 10 percent) and grants made to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. Official aid refers to aid flows from official donors to countries and territories in part II of the DAC list of recipients: more advanced countries of Central and Eastern Europe, the countries of the former Soviet Union, and certain advanced developing countries and territories. Official aid is provided under terms and conditions similar to those for ODA. Part II of the DAC List was abolished in 2005. The collection of data on official aid and other resource flows to Part II countries ended with 2004 data. DAC members are Australia, Austria, Belgium, Canada, Czech Republic, Denmark, Finland, France, Germany, Greece, Hungary, Iceland, Ireland, Italy, Japan, Korea, Luxembourg, The Netherlands, New Zealand, Norway, Poland, Portugal, Slovak Republic, Slovienia, Spain, Sweden, Switzerland, United Kingdom, United States, and European Union Institutions. Regional aggregates include data for economies not specified elsewhere. World and income group totals include aid not allocated by country or region. Data are in current U.S. dollars.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalBilateralAidFlows</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net official development assistance (ODA) consists of disbursements of loans made on concessional terms (net of repayments of principal) and grants by official agencies of the members of the Development Assistance Committee (DAC), by multilateral institutions, and by non-DAC countries to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. It includes loans with a grant element of at least 25 percent (calculated at a rate of discount of 10 percent). Net official aid refers to aid flows (net of repayments) from official donors to countries and territories in part II of the DAC list of recipients: more advanced countries of Central and Eastern Europe, the countries of the former Soviet Union, and certain advanced developing countries and territories. Official aid is provided under terms and conditions similar to those for ODA. Part II of the DAC List was abolished in 2005. The collection of data on official aid and other resource flows to Part II countries ended with 2004 data. Data are in current U.S. dollars.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (constant 2018 US$)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODAReceived_PctGCF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODAReceived_PctGNI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODAReceived_PctImports</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODAReceived_PctCGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GenderParityIndex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryCompletionRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIV_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MortalityRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrentalCare_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODA&amp;AIDReceived_USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODA&amp;AIDReceived_2018USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIDReceived_USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIDReceived_2018USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODAReceived_USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODAReceived_2018USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODAReceived_PerCapita_USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaternalMortality_Ratio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prevalence of stunting is the percentage of children under age 5 whose height for age is more than two standard deviations below the median for the international reference population ages 0-59 months. For children up to two years old height is measured by recumbent length. For older children height is measured by stature while standing. The data are based on the WHO's new child growth standards released in 2006.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stunting_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis is the estimated number of new and relapse tuberculosis cases arising in a given year, expressed as the rate per 100,000 population. All forms of TB are included, including cases in people living with HIV. Estimates for all years are recalculated as new information becomes available and techniques are refined, so they may differ from those published previously.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuberculosis_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percentage share of income or consumption is the share that accrues to subgroups of population indicated by deciles or quintiles. Percentage shares by quintile may not sum to 100 because of rounding.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncomeShare_Low20_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poverty_PctPop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VulnerableEmployment_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetMigration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICT_Exports_USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICT_Exports_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoalElectric_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HydroElectric_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric power transmission and distribution losses include losses in transmission between sources of supply and points of distribution and in the distribution to consumers, including pilferage.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectricLoss_PctOutput</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OilEletric_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric_consum_PerCapita</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NuclearElectric_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NatGasElectric_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annual freshwater withdrawals, agriculture (% of total freshwater withdrawal)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annual freshwater withdrawals refer to total water withdrawals, not counting evaporation losses from storage basins. Withdrawals also include water from desalination plants in countries where they are a significant source. Withdrawals can exceed 100 percent of total renewable resources where extraction from nonrenewable aquifers or desalination plants is considerable or where there is significant water reuse. Withdrawals for agriculture are total withdrawals for irrigation and livestock production. Data are for the most recent year available for 1987-2002.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgriWaterUsage_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DomesWaterUsage_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndusWaterUsage_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalWaterUsage_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalWaterUsage_Amt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renewable internal freshwater resources flows refer to internal renewable resources (internal river flows and groundwater from rainfall) in the country.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenewableWater_Amt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerCapita_RenewableWater</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investment in energy projects with private participation  refers to commitments to  infrastructure projects in energy (electricity and natural gas: generation, transmission and distribution) that have reached financial closure and directly or indirectly serve the public. Movable assets and small projects such as windmills are excluded. The types of projects included are management and lease contracts, operations and management contracts with major capital expenditure, greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility), and divestitures. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>IE.PPI.ENGY.CD</t>
-  </si>
-  <si>
-    <t>IE.PPI.ICTI.CD</t>
-  </si>
-  <si>
-    <t>IE.PPI.TRAN.CD</t>
-  </si>
-  <si>
-    <t>IE.PPI.WATR.CD</t>
-  </si>
-  <si>
-    <t>IE.PPN.ENGY.CD</t>
-  </si>
-  <si>
-    <t>IE.PPN.ICTI.CD</t>
-  </si>
-  <si>
-    <t>IE.PPN.TRAN.CD</t>
-  </si>
-  <si>
-    <t>IE.PPN.WATR.CD</t>
-  </si>
-  <si>
-    <t>IP.IDS.NRCT</t>
-  </si>
-  <si>
-    <t>IP.IDS.RSCT</t>
-  </si>
-  <si>
-    <t>IP.TMK.NRCT</t>
-  </si>
-  <si>
-    <t>IP.TMK.RSCT</t>
-  </si>
-  <si>
-    <t>IS.AIR.DPRT</t>
-  </si>
-  <si>
-    <t>IS.AIR.GOOD.MT.K1</t>
-  </si>
-  <si>
-    <t>IS.AIR.PSGR</t>
-  </si>
-  <si>
-    <t>IS.RRS.GOOD.MT.K6</t>
-  </si>
-  <si>
-    <t>IS.RRS.PASG.KM</t>
-  </si>
-  <si>
-    <t>IS.RRS.TOTL.KM</t>
-  </si>
-  <si>
-    <t>IS.SHP.GCNW.XQ</t>
-  </si>
-  <si>
-    <t>IS.SHP.GOOD.TU</t>
-  </si>
-  <si>
-    <t>IT.CEL.SETS</t>
-  </si>
-  <si>
-    <t>IT.CEL.SETS.P2</t>
-  </si>
-  <si>
-    <t>IT.MLT.MAIN</t>
-  </si>
-  <si>
-    <t>IT.MLT.MAIN.P2</t>
-  </si>
-  <si>
-    <t>IT.NET.BBND</t>
-  </si>
-  <si>
-    <t>IT.NET.BBND.P2</t>
-  </si>
-  <si>
-    <t>IT.NET.SECR</t>
-  </si>
-  <si>
-    <t>IT.NET.SECR.P6</t>
-  </si>
-  <si>
-    <t>IT.NET.USER.ZS</t>
-  </si>
-  <si>
-    <t>TM.VAL.ICTG.ZS.UN</t>
-  </si>
-  <si>
-    <t>TX.VAL.ICTG.ZS.UN</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Australia (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Austria (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Belgium (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Canada (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, European Union institutions (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Switzerland (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Czech Republic (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Germany (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Denmark (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Spain (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Finland (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, France (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, United Kingdom (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Greece (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Hungary (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Ireland (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Iceland (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Italy (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Japan (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Korea, Rep. (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Luxembourg (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Netherlands (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Norway (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, New Zealand (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Poland (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Portugal (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Slovak Republic (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Slovenia (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Sweden (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, Total (current US$)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors, United States (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, FAO (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, IAEA (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, IFAD (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, ILO (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, UNAIDS (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, UNICEF (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, UNHCR (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, UNDP (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, UNECE (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, UNEP (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, UNFPA (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, UNIDIR (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, UNPBF (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, UNRWA (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, UNTA (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, UNWTO (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, WFP (current US$)</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies, WHO (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official aid received (constant 2018 US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of gross capital formation)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (constant 2018 US$)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of imports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of central government expense)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care (%)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Net migration</t>
-  </si>
-  <si>
-    <t>ICT service exports (BoP, current US$)</t>
-  </si>
-  <si>
-    <t>ICT service exports (% of service exports, BoP)</t>
-  </si>
-  <si>
-    <t>Electricity production from coal sources (% of total)</t>
-  </si>
-  <si>
-    <t>Electricity production from hydroelectric sources (% of total)</t>
-  </si>
-  <si>
-    <t>Electric power transmission and distribution losses (% of output)</t>
-  </si>
-  <si>
-    <t>Electricity production from natural gas sources (% of total)</t>
-  </si>
-  <si>
-    <t>Electricity production from nuclear sources (% of total)</t>
-  </si>
-  <si>
-    <t>Electricity production from oil sources (% of total)</t>
-  </si>
-  <si>
-    <t>Electric power consumption (kWh per capita)</t>
-  </si>
-  <si>
-    <t>Annual freshwater withdrawals, agriculture (% of total freshwater withdrawal)</t>
-  </si>
-  <si>
-    <t>Annual freshwater withdrawals, domestic (% of total freshwater withdrawal)</t>
-  </si>
-  <si>
-    <t>Annual freshwater withdrawals, industry (% of total freshwater withdrawal)</t>
-  </si>
-  <si>
-    <t>Annual freshwater withdrawals, total (billion cubic meters)</t>
-  </si>
-  <si>
-    <t>Annual freshwater withdrawals, total (% of internal resources)</t>
-  </si>
-  <si>
-    <t>Renewable internal freshwater resources, total (billion cubic meters)</t>
-  </si>
-  <si>
-    <t>Renewable internal freshwater resources per capita (cubic meters)</t>
-  </si>
-  <si>
-    <t>Investment in energy with private participation (current US$)</t>
-  </si>
-  <si>
-    <t>Investment in ICT with private participation (current US$)</t>
-  </si>
-  <si>
-    <t>Investment in transport with private participation (current US$)</t>
-  </si>
-  <si>
-    <t>Investment in water and sanitation with private participation (current US$)</t>
-  </si>
-  <si>
-    <t>Public private partnerships investment in energy (current US$)</t>
-  </si>
-  <si>
-    <t>Public private partnerships investment in ICT (current US$)</t>
-  </si>
-  <si>
-    <t>Public private partnerships investment in transport (current US$)</t>
-  </si>
-  <si>
-    <t>Public private partnerships investment in water and sanitation (current US$)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergeInvestment_USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICTInvestment_USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investment in water and sanitation projects with private participation refers to commitments to  infrastructure projects in water and sanitation that have reached financial closure and directly or indirectly serve the public. Movable assets, incinerators, standalone solid waste projects, and small projects are excluded. The types of projects included are management and lease contracts, operations and management contracts with major capital expenditure, greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility), and divestitures. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransportInvest_USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SanitationInvest_USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public Private Partnerships in energy (current US$)  refers to commitments to  infrastructure projects in energy (electricity and natural gas transmission and distribution) that have reached financial closure and directly or indirectly serve the public. Movable assets and small projects such as windmills are excluded. The types of projects included are  management and lease contracts, operations and management contracts with major capital expenditure, and greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility). It excludes divestitures and merchant projects. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public Private Partnerships in ICT (current US$) refers to commitments to projects in ICT backbone infrastructure (including land based and submarine cables) that have reached financial closure and directly or indirectly serve the public. Movable assets and small projects are excluded. The types of projects included are management and lease contracts, operations and management contracts with major capital expenditure and greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility). It excludes divestitures and merchant projects. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars and available 2015 onwards only.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SanitationPartnership_USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransportPartnership_USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICTPartnership_USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergePartnership_USD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Industrial design applications are applications to register an industrial design with a national or regional Intellectual Property (IP) offices and designations received by relevant offices through the Hague System. Industrial designs are applied to a wide variety of industrial products and handicrafts. They refer to the ornamental or aesthetic aspects of a useful article, including compositions of lines or colors or any three-dimensional forms that give a special appearance to a product or handicraft. The holder of a registered industrial design has exclusive rights against unauthorized copying or imitation of the design by third parties. Industrial design registrations are valid for a limited period. The term of protection is usually 15 years for most jurisdictions. However, differences in legislation do exist, notably in China (which provides for a 10-year term from the application date). Non-resident application refers to an application filed with the IP office of or acting on behalf of a state or jurisdiction in which the first-named applicant in the application is not domiciled. Design count is used to render application data for industrial applications across offices comparable, as some offices follow a single-class/single-design filing system while other have a multiple class/design filing system.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trademark_nonresident</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trademark_resident</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Industrial design applications, nonresident, by count</t>
-  </si>
-  <si>
-    <t>Industrial design applications, resident, by count</t>
-  </si>
-  <si>
-    <t>Trademark applications, nonresident, by count</t>
-  </si>
-  <si>
-    <t>Trademark applications, resident, by count</t>
-  </si>
-  <si>
-    <t>Air transport, registered carrier departures worldwide</t>
-  </si>
-  <si>
-    <t>Air transport, freight (million ton-km)</t>
-  </si>
-  <si>
-    <t>Air transport, passengers carried</t>
-  </si>
-  <si>
-    <t>Railways, goods transported (million ton-km)</t>
-  </si>
-  <si>
-    <t>Railways, passengers carried (million passenger-km)</t>
-  </si>
-  <si>
-    <t>Rail lines (total route-km)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustDesignApp_nonresident</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustDesignApp_resident</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registered carrier departures worldwide are domestic takeoffs and takeoffs abroad of air carriers registered in the country.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirplaneDepartures</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Air freight is the volume of freight, express, and diplomatic bags carried on each flight stage (operation of an aircraft from takeoff to its next landing), measured in metric tons times kilometers traveled.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirplanePassengers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RailPassengers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirplaneCargo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RailCargo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RailLines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Liner Shipping Connectivity Index captures how well countries are connected to global shipping networks. It is computed by the United Nations Conference on Trade and Development (UNCTAD) based on five components of the maritime transport sector: number of ships, their container-carrying capacity, maximum vessel size, number of services, and number of companies that deploy container ships in a country's ports. For each component a country's value is divided by the maximum value of each component in 2004, the five components are averaged for each country, and the average is divided by the maximum average for 2004 and multiplied by 100. The index generates a value of 100 for the country with the highest average index in 2004. . The underlying data come from Containerisation International Online.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Liner shipping connectivity index (maximum value in 2004 = 100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinerShippingConnectivityIndex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Container port traffic (TEU: 20 foot equivalent units)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Fixed broadband subscriptions</t>
-  </si>
-  <si>
-    <t>Fixed broadband subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Secure Internet servers</t>
-  </si>
-  <si>
-    <t>Secure Internet servers (per 1 million people)</t>
-  </si>
-  <si>
-    <t>Individuals using the Internet (% of population)</t>
-  </si>
-  <si>
-    <t>ICT goods imports (% total goods imports)</t>
-  </si>
-  <si>
-    <t>ICT goods exports (% of total goods exports)</t>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors are the net disbursements of official development assistance (ODA) or official aid from the members of the Development Assistance Committee (DAC). Net disbursements are gross disbursements of grants and loans minus repayments of principal on earlier loans. ODA consists of loans made on concessional terms (with a grant element of at least 25 percent, calculated at a rate of discount of 10 percent) and grants made to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. Official aid refers to aid flows from official donors to countries and territories in part II of the DAC list of recipients: more advanced countries of Central and Eastern Europe, the countries of the former Soviet Union, and certain advanced developing countries and territories. Official aid is provided under terms and conditions similar to those for ODA. Part II of the DAC List was abolished in 2005. The collection of data on official aid and other resource flows to Part II countries ended with 2004 data. DAC members are Australia, Austria, Belgium, Canada, Czech Republic, Denmark, Finland, France, Germany, Greece, Hungary, Iceland, Ireland, Italy, Japan, Korea, Luxembourg, The Netherlands, New Zealand, Norway, Poland, Portugal, Slovak Republic, Slovienia, Spain, Sweden, Switzerland, United Kingdom, United States, and European Union Institutions. Regional aggregates include data for economies not specified elsewhere. World and income group totals include aid not allocated by country or region. Data are in current U.S. dollars.</t>
-  </si>
-  <si>
-    <t>Net official flows from UN agencies are the net disbursements of total official flows from the UN agencies. Total official flows are the sum of Official Development Assistance (ODA) or official aid and Other Official Flows (OOF) and represent the total disbursements by the official sector at large to the recipient country. Net disbursements are gross disbursements of grants and loans minus repayments of principal on earlier loans. ODA consists of loans made on concessional terms (with a grant element of at least 25 percent, calculated at a rate of discount of 10 percent) and grants made to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. Official aid refers to aid flows from official donors to countries and territories in part II of the DAC list of recipients: more advanced countries of Central and Eastern Europe, the countries of the former Soviet Union, and certain advanced developing countries and territories. Official aid is provided under terms and conditions similar to those for ODA. Part II of the DAC List was abolished in 2005. The collection of data on official aid and other resource flows to Part II countries ended with 2004 data. OOF are transactions by the official sector whose main objective is other than development-motivated, or, if development-motivated, whose grant element is below the 25 per cent threshold which would make them eligible to be recorded as ODA. The main classes of transactions included here are official export credits, official sector equity and portfolio investment, and debt reorganization undertaken by the official sector at nonconcessional terms (irrespective of the nature or the identity of the original creditor). UN agencies are United Nations includes the United Nations Children’s Fund (UNICEF), United Nations Relief and Works Agency for Palestine Refugees in the Near East (UNRWA), World Food Programme (WFP), International Fund for Agricultural Development (IFAD), United Nations Development Programme(UNDP), United Nations Population Fund (UNFPA), United Nations Refugee Agency (UNHCR), Joint United Nations Programme on HIV/AIDS (UNAIDS), United Nations Regular Programme for Technical Assistance (UNTA), United Nations Peacebuilding Fund (UNPBF), International Atomic Energy Agency (IAEA), World Health Organization (WHO), United Nations Economic Commission for Europe (UNECE), Food and Agriculture Organization of the United Nations (FAO), International Labour Organization (ILO), United Nations Environment Programme (UNEP), World Tourism Organization (UNWTO) and United Nations Institute for Disarmament Research (UNIDIR). Data are in current U.S. dollars.</t>
-  </si>
-  <si>
-    <t>Net official development assistance (ODA) consists of disbursements of loans made on concessional terms (net of repayments of principal) and grants by official agencies of the members of the Development Assistance Committee (DAC), by multilateral institutions, and by non-DAC countries to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. It includes loans with a grant element of at least 25 percent (calculated at a rate of discount of 10 percent). Net official aid refers to aid flows (net of repayments) from official donors to countries and territories in part II of the DAC list of recipients: more advanced countries of Central and Eastern Europe, the countries of the former Soviet Union, and certain advanced developing countries and territories. Official aid is provided under terms and conditions similar to those for ODA. Part II of the DAC List was abolished in 2005. The collection of data on official aid and other resource flows to Part II countries ended with 2004 data. Data are in constant 2018 U.S. dollars.</t>
-  </si>
-  <si>
-    <t>Net official aid refers to aid flows (net of repayments) from official donors to countries and territories in part II of the DAC list of recipients: more advanced countries of Central and Eastern Europe, the countries of the former Soviet Union, and certain advanced developing countries and territories. Official aid is provided under terms and conditions similar to those for ODA. Part II of the DAC List was abolished in 2005. The collection of data on official aid and other resource flows to Part II countries ended with 2004 data. Data are in current U.S. dollars.</t>
-  </si>
-  <si>
-    <t>Net official aid refers to aid flows (net of repayments) from official donors to countries and territories in part II of the DAC list of recipients: more advanced countries of Central and Eastern Europe, the countries of the former Soviet Union, and certain advanced developing countries and territories. Official aid is provided under terms and conditions similar to those for ODA. Part II of the DAC List was abolished in 2005. The collection of data on official aid and other resource flows to Part II countries ended with 2004 data. Data are in constant 2018 U.S. dollars.</t>
-  </si>
-  <si>
-    <t>Net official development assistance (ODA) consists of disbursements of loans made on concessional terms (net of repayments of principal) and grants by official agencies of the members of the Development Assistance Committee (DAC), by multilateral institutions, and by non-DAC countries to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. It includes loans with a grant element of at least 25 percent (calculated at a rate of discount of 10 percent). Data are in current U.S. dollars.</t>
-  </si>
-  <si>
-    <t>Net official development assistance (ODA) consists of disbursements of loans made on concessional terms (net of repayments of principal) and grants by official agencies of the members of the Development Assistance Committee (DAC), by multilateral institutions, and by non-DAC countries to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. It includes loans with a grant element of at least 25 percent (calculated at a rate of discount of 10 percent).</t>
-  </si>
-  <si>
-    <t>Net official development assistance (ODA) consists of disbursements of loans made on concessional terms (net of repayments of principal) and grants by official agencies of the members of the Development Assistance Committee (DAC), by multilateral institutions, and by non-DAC countries to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. It includes loans with a grant element of at least 25 percent (calculated at a rate of discount of 10 percent). Data are in constant 2018 U.S. dollars.</t>
-  </si>
-  <si>
-    <t>Net official development assistance (ODA) per capita consists of disbursements of loans made on concessional terms (net of repayments of principal) and grants by official agencies of the members of the Development Assistance Committee (DAC), by multilateral institutions, and by non-DAC countries to promote economic development and welfare in countries and territories in the DAC list of ODA recipients; and is calculated by dividing net ODA received by the midyear population estimate. It includes loans with a grant element of at least 25 percent (calculated at a rate of discount of 10 percent).</t>
-  </si>
-  <si>
-    <t>Gender parity index for gross enrollment ratio in primary and secondary education is the ratio of girls to boys enrolled at primary and secondary levels in public and private schools.</t>
-  </si>
-  <si>
-    <t>Primary completion rate, or gross intake ratio to the last grade of primary education, is the number of new entrants (enrollments minus repeaters) in the last grade of primary education, regardless of age, divided by the population at the entrance age for the last grade of primary education. Data limitations preclude adjusting for students who drop out during the final year of primary education.</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV refers to the percentage of people ages 15-49 who are infected with HIV.</t>
-  </si>
-  <si>
-    <t>Under-five mortality rate is the probability per 1,000 that a newborn baby will die before reaching age five, if subject to age-specific mortality rates of the specified year.</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care are the percentage of women attended at least once during pregnancy by skilled health personnel for reasons related to pregnancy.</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio is the number of women who die from pregnancy-related causes while pregnant or within 42 days of pregnancy termination per 100,000 live births. The data are estimated with a regression model using information on the proportion of maternal deaths among non-AIDS deaths in women ages 15-49, fertility, birth attendants, and GDP measured using purchasing power parities (PPPs).</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day is the percentage of the population living on less than $1.90 a day at 2011 international prices. As a result of revisions in PPP exchange rates, poverty rates for individual countries cannot be compared with poverty rates reported in earlier editions.</t>
-  </si>
-  <si>
-    <t>Vulnerable employment is contributing family workers and own-account workers as a percentage of total employment.</t>
-  </si>
-  <si>
-    <t>Net migration is the net total of migrants during the period, that is, the total number of immigrants less the annual number of emigrants, including both citizens and noncitizens. Data are five-year estimates.</t>
-  </si>
-  <si>
-    <t>Information and communication technology service exports include computer and communications services (telecommunications and postal and courier services) and information services (computer data and news-related service transactions). Data are in current U.S. dollars.</t>
-  </si>
-  <si>
-    <t>Information and communication technology service exports include computer and communications services (telecommunications and postal and courier services) and information services (computer data and news-related service transactions).</t>
-  </si>
-  <si>
-    <t>Sources of electricity refer to the inputs used to generate electricity. Coal refers to all coal and brown coal, both primary (including hard coal and lignite-brown coal) and derived fuels (including patent fuel, coke oven coke, gas coke, coke oven gas, and blast furnace gas). Peat is also included in this category.</t>
-  </si>
-  <si>
-    <t>Sources of electricity refer to the inputs used to generate electricity. Hydropower refers to electricity produced by hydroelectric power plants.</t>
-  </si>
-  <si>
-    <t>Electric power transmission and distribution losses include losses in transmission between sources of supply and points of distribution and in the distribution to consumers, including pilferage.</t>
-  </si>
-  <si>
-    <t>Sources of electricity refer to the inputs used to generate electricity. Gas refers to natural gas but excludes natural gas liquids.</t>
-  </si>
-  <si>
-    <t>Sources of electricity refer to the inputs used to generate electricity. Nuclear power refers to electricity produced by nuclear power plants.</t>
-  </si>
-  <si>
-    <t>Sources of electricity refer to the inputs used to generate electricity. Oil refers to crude oil and petroleum products.</t>
-  </si>
-  <si>
-    <t>Electric power consumption measures the production of power plants and combined heat and power plants less transmission, distribution, and transformation losses and own use by heat and power plants.</t>
-  </si>
-  <si>
-    <t>Annual freshwater withdrawals refer to total water withdrawals, not counting evaporation losses from storage basins. Withdrawals also include water from desalination plants in countries where they are a significant source. Withdrawals can exceed 100 percent of total renewable resources where extraction from nonrenewable aquifers or desalination plants is considerable or where there is significant water reuse. Withdrawals for agriculture are total withdrawals for irrigation and livestock production. Data are for the most recent year available for 1987-2002.</t>
-  </si>
-  <si>
-    <t>Annual freshwater withdrawals refer to total water withdrawals, not counting evaporation losses from storage basins. Withdrawals also include water from desalination plants in countries where they are a significant source. Withdrawals can exceed 100 percent of total renewable resources where extraction from nonrenewable aquifers or desalination plants is considerable or where there is significant water reuse. Withdrawals for domestic uses include drinking water, municipal use or supply, and use for public services, commercial establishments, and homes. Data are for the most recent year available for 1987-2002.</t>
-  </si>
-  <si>
-    <t>Annual freshwater withdrawals refer to total water withdrawals, not counting evaporation losses from storage basins. Withdrawals also include water from desalination plants in countries where they are a significant source. Withdrawals can exceed 100 percent of total renewable resources where extraction from nonrenewable aquifers or desalination plants is considerable or where there is significant water reuse. Withdrawals for industry are total withdrawals for direct industrial use (including withdrawals for cooling thermoelectric plants). Data are for the most recent year available for 1987-2002.</t>
-  </si>
-  <si>
-    <t>Annual freshwater withdrawals refer to total water withdrawals, not counting evaporation losses from storage basins. Withdrawals also include water from desalination plants in countries where they are a significant source. Withdrawals can exceed 100 percent of total renewable resources where extraction from nonrenewable aquifers or desalination plants is considerable or where there is significant water reuse. Withdrawals for agriculture and industry are total withdrawals for irrigation and livestock production and for direct industrial use (including withdrawals for cooling thermoelectric plants). Withdrawals for domestic uses include drinking water, municipal use or supply, and use for public services, commercial establishments, and homes. Data are for the most recent year available for 1987-2002.</t>
-  </si>
-  <si>
-    <t>Renewable internal freshwater resources flows refer to internal renewable resources (internal river flows and groundwater from rainfall) in the country.</t>
-  </si>
-  <si>
-    <t>Renewable internal freshwater resources flows refer to internal renewable resources (internal river flows and groundwater from rainfall) in the country. Renewable internal freshwater resources per capita are calculated using the World Bank's population estimates.</t>
-  </si>
-  <si>
-    <t>Investment in energy projects with private participation  refers to commitments to  infrastructure projects in energy (electricity and natural gas: generation, transmission and distribution) that have reached financial closure and directly or indirectly serve the public. Movable assets and small projects such as windmills are excluded. The types of projects included are management and lease contracts, operations and management contracts with major capital expenditure, greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility), and divestitures. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars.</t>
-  </si>
-  <si>
-    <t>Investment in ICT projects with private participation refers to commitments to projects in ICT backbone infrastructure (including land based and submarine cables) that have reached financial closure and directly or indirectly serve the public. Movable assets and small projects are excluded. The types of projects included are operations and management contracts, operations and management contracts with major capital expenditure, greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility), and divestitures. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars and available 2015 onwards only.</t>
-  </si>
-  <si>
-    <t>Investment  in transport projects with private participation refers to commitments to  infrastructure projects in transport that have reached financial closure and directly or indirectly serve the public. Movable assets and small projects are excluded. The types of projects included are  management and lease contracts, operations and management contracts with major capital expenditure, greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility), and divestitures. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars.</t>
-  </si>
-  <si>
-    <t>Investment in water and sanitation projects with private participation refers to commitments to  infrastructure projects in water and sanitation that have reached financial closure and directly or indirectly serve the public. Movable assets, incinerators, standalone solid waste projects, and small projects are excluded. The types of projects included are management and lease contracts, operations and management contracts with major capital expenditure, greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility), and divestitures. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars.</t>
-  </si>
-  <si>
-    <t>Public Private Partnerships in energy (current US$)  refers to commitments to  infrastructure projects in energy (electricity and natural gas transmission and distribution) that have reached financial closure and directly or indirectly serve the public. Movable assets and small projects such as windmills are excluded. The types of projects included are  management and lease contracts, operations and management contracts with major capital expenditure, and greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility). It excludes divestitures and merchant projects. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars.</t>
-  </si>
-  <si>
-    <t>Public Private Partnerships in ICT (current US$) refers to commitments to projects in ICT backbone infrastructure (including land based and submarine cables) that have reached financial closure and directly or indirectly serve the public. Movable assets and small projects are excluded. The types of projects included are management and lease contracts, operations and management contracts with major capital expenditure and greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility). It excludes divestitures and merchant projects. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars and available 2015 onwards only.</t>
-  </si>
-  <si>
-    <t>Public Private Partnerships in transport (current US$) refers to commitments to  infrastructure projects in transport that have reached financial closure and directly or indirectly serve the public. Movable assets and small projects are excluded. The types of projects included are  management and lease contracts, operations and management contracts with major capital expenditure,  and greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility). It excludes divestitures and merchant projects. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars.</t>
-  </si>
-  <si>
-    <t>Public Private Partnerships in water and sanitation (current US$) refers to commitments to  infrastructure projects in water and sanitation that have reached financial closure and directly or indirectly serve the public. Movable assets, incinerators, standalone solid waste projects, and small projects are excluded. The types of projects included are management and lease contracts, operations and management contracts with major capital expenditure, and greenfield projects (in which a private entity or a public-private joint venture builds and operates a new facility). It excludes divestitures and merchant projects. Investment commitments are the sum of investments in facilities and investments in government assets. Investments in facilities are the resources the project company commits to invest during the contract period either in new facilities or in expansion and modernization of existing facilities. Investments in government assets are the resources the project company spends on acquiring government assets such as state-owned enterprises, rights to provide services in a specific area, or the use of specific radio spectrums. Data is presented based on investment year. Data are in current U.S. dollars.</t>
-  </si>
-  <si>
-    <t>Industrial design applications are applications to register an industrial design with a national or regional Intellectual Property (IP) offices and designations received by relevant offices through the Hague System. Industrial designs are applied to a wide variety of industrial products and handicrafts. They refer to the ornamental or aesthetic aspects of a useful article, including compositions of lines or colors or any three-dimensional forms that give a special appearance to a product or handicraft. The holder of a registered industrial design has exclusive rights against unauthorized copying or imitation of the design by third parties. Industrial design registrations are valid for a limited period. The term of protection is usually 15 years for most jurisdictions. However, differences in legislation do exist, notably in China (which provides for a 10-year term from the application date). Non-resident application refers to an application filed with the IP office of or acting on behalf of a state or jurisdiction in which the first-named applicant in the application is not domiciled. Design count is used to render application data for industrial applications across offices comparable, as some offices follow a single-class/single-design filing system while other have a multiple class/design filing system.</t>
-  </si>
-  <si>
-    <t>Industrial design applications are applications to register an industrial design with a national or regional Intellectual Property (IP) offices and designations received by relevant offices through the Hague System. Industrial designs are applied to a wide variety of industrial products and handicrafts. They refer to the ornamental or aesthetic aspects of a useful article, including compositions of lines or colors or any three-dimensional forms that give a special appearance to a product or handicraft. The holder of a registered industrial design has exclusive rights against unauthorized copying or imitation of the design by third parties. Industrial design registrations are valid for a limited period. The term of protection is usually 15 years for most jurisdictions. However, differences in legislation do exist, notably in China (which provides for a 10-year term from the application date). Resident application refers to an application filed with the IP office of or acting on behalf of the state or jurisdiction in which the first-named applicant in the application has residence. Design count is used to render application data for industrial applications across offices comparable, as some offices follow a single-class/single-design filing system while other have a multiple class/design filing system.</t>
-  </si>
-  <si>
-    <t>Trademark applications filed are applications to register a trademark with a national or regional Intellectual Property (IP) offices and designations received by relevant offices through the Madrid System. A trademark is a distinctive sign which identifies certain goods or services as those produced or provided by a specific person or enterprise. A trademark provides protection to the owner of the mark by ensuring the exclusive right to use it to identify goods or services, or to authorize another to use it in return for payment. The period of protection varies, but a trademark can be renewed indefinitely beyond the time limit on payment of additional fees. Non-resident application refers to an application filed with the IP office of or acting on behalf of a state or jurisdiction in which the first-named applicant in the application is not domiciled. Class count is used to render application data for trademark applications across offices comparable, as some offices follow a single-class/single-design filing system while other have a multiple class/design filing system.</t>
-  </si>
-  <si>
-    <t>Trademark applications filed are applications to register a trademark with a national or regional Intellectual Property (IP) offices and designations received by relevant offices through the Madrid System. A trademark is a distinctive sign which identifies certain goods or services as those produced or provided by a specific person or enterprise. A trademark provides protection to the owner of the mark by ensuring the exclusive right to use it to identify goods or services, or to authorize another to use it in return for payment. The period of protection varies, but a trademark can be renewed indefinitely beyond the time limit on payment of additional fees. Resident application refers to an application filed with the IP office of or acting on behalf of the state or jurisdiction in which the first-named applicant in the application has residence. Class count is used to render application data for trademark applications across offices comparable, as some offices follow a single-class/single-design filing system while other have a multiple class/design filing system.</t>
-  </si>
-  <si>
-    <t>Registered carrier departures worldwide are domestic takeoffs and takeoffs abroad of air carriers registered in the country.</t>
-  </si>
-  <si>
-    <t>Air freight is the volume of freight, express, and diplomatic bags carried on each flight stage (operation of an aircraft from takeoff to its next landing), measured in metric tons times kilometers traveled.</t>
-  </si>
-  <si>
-    <t>Air passengers carried include both domestic and international aircraft passengers of air carriers registered in the country.</t>
-  </si>
-  <si>
-    <t>Goods transported by railway are the volume of goods transported by railway, measured in metric tons times kilometers traveled.</t>
-  </si>
-  <si>
-    <t>Passengers carried by railway are the number of passengers transported by rail times kilometers traveled.</t>
-  </si>
-  <si>
-    <t>Rail lines are the length of railway route available for train service, irrespective of the number of parallel tracks.</t>
-  </si>
-  <si>
-    <t>The Liner Shipping Connectivity Index captures how well countries are connected to global shipping networks. It is computed by the United Nations Conference on Trade and Development (UNCTAD) based on five components of the maritime transport sector: number of ships, their container-carrying capacity, maximum vessel size, number of services, and number of companies that deploy container ships in a country's ports. For each component a country's value is divided by the maximum value of each component in 2004, the five components are averaged for each country, and the average is divided by the maximum average for 2004 and multiplied by 100. The index generates a value of 100 for the country with the highest average index in 2004. . The underlying data come from Containerisation International Online.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Port container traffic measures the flow of containers from land to sea transport modes, and vice versa, in twenty-foot equivalent units (TEUs), a standard-size container. Data refer to coastal shipping as well as international journeys. Transshipment traffic is counted as two lifts at the intermediate port (once to off-load and again as an outbound lift) and includes empty units.</t>
-  </si>
-  <si>
-    <t>Mobile cellular telephone subscriptions are subscriptions to a public mobile telephone service that provide access to the PSTN using cellular technology. The indicator includes (and is split into) the number of postpaid subscriptions, and the number of active prepaid accounts (i.e. that have been used during the last three months). The indicator applies to all mobile cellular subscriptions that offer voice communications. It excludes subscriptions via data cards or USB modems, subscriptions to public mobile data services, private trunked mobile radio, telepoint, radio paging and telemetry services.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortContainerTraffic_TEU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CellPhoneSubscript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per100_CellPhoneSubscript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fixed telephone subscriptions refers to the sum of active number of analogue fixed telephone lines, voice-over-IP (VoIP) subscriptions, fixed wireless local loop (WLL) subscriptions, ISDN voice-channel equivalents and fixed public payphones.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FixedPhoneSubscript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per100_FixedPhoneSubscript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fixed broadband subscriptions refers to fixed subscriptions to high-speed access to the public Internet (a TCP/IP connection), at downstream speeds equal to, or greater than, 256 kbit/s. This includes cable modem, DSL, fiber-to-the-home/building, other fixed (wired)-broadband subscriptions, satellite broadband and terrestrial fixed wireless broadband. This total is measured irrespective of the method of payment. It excludes subscriptions that have access to data communications (including the Internet) via mobile-cellular networks. It should include fixed WiMAX and any other fixed wireless technologies. It includes both residential subscriptions and subscriptions for organizations.</t>
-  </si>
-  <si>
-    <t>The number of distinct, publicly-trusted TLS/SSL certificates found in the Netcraft Secure Server Survey.</t>
-  </si>
-  <si>
-    <t>Internet users are individuals who have used the Internet (from any location) in the last 3 months. The Internet can be used via a computer, mobile phone, personal digital assistant, games machine, digital TV etc.</t>
-  </si>
-  <si>
-    <t>Information and communication technology goods imports include computers and peripheral equipment, communication equipment, consumer electronic equipment, electronic components, and other information and technology goods (miscellaneous).</t>
-  </si>
-  <si>
-    <t>Information and communication technology goods exports include computers and peripheral equipment, communication equipment, consumer electronic equipment, electronic components, and other information and technology goods (miscellaneous).</t>
-  </si>
-  <si>
-    <t>sourceNote</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Series_Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Series_Code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>New_Series_Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grants, excluding technical cooperation (BoP, current US$)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Technical cooperation grants (BoP, current US$)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TechCoopGrants</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grants are defined as legally binding commitments that obligate a specific value of funds available for disbursement for which there is no repayment requirement. Data are in current U.S. dollars.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Technical cooperation grants include free-standing technical cooperation grants, which are intended to finance the transfer of technical and managerial skills or of technology for the purpose of building up general national capacity without reference to any specific investment projects; and investment-related technical cooperation grants, which are provided to strengthen the capacity to execute specific investment projects. Data are in current U.S. dollars.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grants</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Net bilateral aid flows from DAC donors are the net disbursements of official development assistance (ODA) or official aid from the members of the Development Assistance Committee (DAC). Net disbursements are gross disbursements of grants and loans minus repayments of principal on earlier loans. ODA consists of loans made on concessional terms (with a grant element of at least 25 percent, calculated at a rate of discount of 10 percent) and grants made to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. Official aid refers to aid flows from official donors to countries and territories in part II of the DAC list of recipients: more advanced countries of Central and Eastern Europe, the countries of the former Soviet Union, and certain advanced developing countries and territories. Official aid is provided under terms and conditions similar to those for ODA. Part II of the DAC List was abolished in 2005. The collection of data on official aid and other resource flows to Part II countries ended with 2004 data. DAC members are Australia, Austria, Belgium, Canada, Czech Republic, Denmark, Finland, France, Germany, Greece, Hungary, Iceland, Ireland, Italy, Japan, Korea, Luxembourg, The Netherlands, New Zealand, Norway, Poland, Portugal, Slovak Republic, Slovienia, Spain, Sweden, Switzerland, United Kingdom, United States, and European Union Institutions. Regional aggregates include data for economies not specified elsewhere. World and income group totals include aid not allocated by country or region. Data are in current U.S. dollars.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotalBilateralAidFlows</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Net official development assistance (ODA) consists of disbursements of loans made on concessional terms (net of repayments of principal) and grants by official agencies of the members of the Development Assistance Committee (DAC), by multilateral institutions, and by non-DAC countries to promote economic development and welfare in countries and territories in the DAC list of ODA recipients. It includes loans with a grant element of at least 25 percent (calculated at a rate of discount of 10 percent). Net official aid refers to aid flows (net of repayments) from official donors to countries and territories in part II of the DAC list of recipients: more advanced countries of Central and Eastern Europe, the countries of the former Soviet Union, and certain advanced developing countries and territories. Official aid is provided under terms and conditions similar to those for ODA. Part II of the DAC List was abolished in 2005. The collection of data on official aid and other resource flows to Part II countries ended with 2004 data. Data are in current U.S. dollars.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (constant 2018 US$)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODAReceived_PctGCF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODAReceived_PctGNI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODAReceived_PctImports</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODAReceived_PctCGE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GenderParityIndex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryCompletionRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIV_Pct</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MortalityRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrentalCare_Pct</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODA&amp;AIDReceived_USD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODA&amp;AIDReceived_2018USD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIDReceived_USD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIDReceived_2018USD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODAReceived_USD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODAReceived_2018USD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODAReceived_PerCapita_USD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaternalMortality_Ratio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prevalence of stunting is the percentage of children under age 5 whose height for age is more than two standard deviations below the median for the international reference population ages 0-59 months. For children up to two years old height is measured by recumbent length. For older children height is measured by stature while standing. The data are based on the WHO's new child growth standards released in 2006.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stunting_Pct</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis is the estimated number of new and relapse tuberculosis cases arising in a given year, expressed as the rate per 100,000 population. All forms of TB are included, including cases in people living with HIV. Estimates for all years are recalculated as new information becomes available and techniques are refined, so they may differ from those published previously.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tuberculosis_Pct</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percentage share of income or consumption is the share that accrues to subgroups of population indicated by deciles or quintiles. Percentage shares by quintile may not sum to 100 because of rounding.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IncomeShare_Low20_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternetSubscript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per100_InternetSubscript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternetServers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerMill_InternetSubscript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternetUsers_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICTImports_Pct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICTExports_Pct</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1496,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1510,16 +1736,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1527,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1541,13 +1767,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1555,11 +1781,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1567,11 +1793,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1579,11 +1805,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1591,11 +1817,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1603,11 +1829,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1615,11 +1841,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1627,11 +1853,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1639,11 +1865,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1651,11 +1877,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1663,11 +1889,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1675,11 +1901,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1687,11 +1913,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1699,11 +1925,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1711,11 +1937,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1723,11 +1949,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1735,11 +1961,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1747,11 +1973,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1759,11 +1985,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1771,11 +1997,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1783,11 +2009,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1795,11 +2021,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1807,11 +2033,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1819,11 +2045,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1831,11 +2057,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1843,11 +2069,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1855,11 +2081,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1867,11 +2093,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1879,11 +2105,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1891,11 +2117,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1903,13 +2129,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="D33" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1917,11 +2143,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1929,11 +2155,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1941,11 +2167,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1953,11 +2179,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1965,11 +2191,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1977,11 +2203,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1989,11 +2215,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2001,11 +2227,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2013,11 +2239,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2025,11 +2251,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2037,11 +2263,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2049,11 +2275,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2061,11 +2287,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2073,11 +2299,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2085,11 +2311,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2097,11 +2323,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2109,11 +2335,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2121,11 +2347,11 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2133,11 +2359,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2145,13 +2371,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C53" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D53" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2159,13 +2385,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C54" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="D54" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2173,13 +2399,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="D55" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2187,13 +2413,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D56" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2201,13 +2427,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="D57" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2215,13 +2441,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="D58" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2229,13 +2455,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2243,13 +2469,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2257,13 +2483,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2271,13 +2497,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="D62" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2285,13 +2511,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D63" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2299,13 +2525,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="D64" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2313,13 +2539,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="D65" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2327,13 +2553,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C66" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="D66" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2341,13 +2567,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C67" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D67" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2355,13 +2581,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D68" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2369,13 +2595,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C69" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D69" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2383,13 +2609,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="D70" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2397,13 +2623,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D71" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2411,13 +2637,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C72" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="D72" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2425,10 +2651,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>318</v>
+      </c>
+      <c r="C73" t="s">
+        <v>319</v>
       </c>
       <c r="D73" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2436,10 +2665,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="C74" t="s">
+        <v>320</v>
       </c>
       <c r="D74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2447,10 +2679,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="C75" t="s">
+        <v>321</v>
       </c>
       <c r="D75" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2458,10 +2693,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="C76" t="s">
+        <v>322</v>
       </c>
       <c r="D76" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2469,10 +2707,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="C77" t="s">
+        <v>323</v>
       </c>
       <c r="D77" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2480,10 +2721,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="C78" t="s">
+        <v>324</v>
       </c>
       <c r="D78" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2491,10 +2735,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="C79" t="s">
+        <v>325</v>
       </c>
       <c r="D79" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2502,10 +2749,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="C80" t="s">
+        <v>327</v>
       </c>
       <c r="D80" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2513,10 +2763,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="C81" t="s">
+        <v>331</v>
       </c>
       <c r="D81" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2524,10 +2777,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="C82" t="s">
+        <v>330</v>
       </c>
       <c r="D82" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2535,10 +2791,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="C83" t="s">
+        <v>328</v>
       </c>
       <c r="D83" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2546,10 +2805,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="C84" t="s">
+        <v>329</v>
       </c>
       <c r="D84" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2557,10 +2819,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>332</v>
+      </c>
+      <c r="C85" t="s">
+        <v>334</v>
       </c>
       <c r="D85" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2568,10 +2833,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="C86" t="s">
+        <v>335</v>
       </c>
       <c r="D86" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2579,10 +2847,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>198</v>
+      </c>
+      <c r="C87" t="s">
+        <v>336</v>
       </c>
       <c r="D87" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2590,10 +2861,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="C88" t="s">
+        <v>338</v>
       </c>
       <c r="D88" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2601,10 +2875,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="C89" t="s">
+        <v>337</v>
       </c>
       <c r="D89" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2612,10 +2889,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="C90" t="s">
+        <v>340</v>
       </c>
       <c r="D90" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2623,351 +2903,447 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="C91" t="s">
+        <v>341</v>
       </c>
       <c r="D91" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>343</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="C92" t="s">
+        <v>344</v>
       </c>
       <c r="D92" t="s">
-        <v>270</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+      <c r="C93" t="s">
+        <v>345</v>
       </c>
       <c r="D93" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="C94" t="s">
+        <v>347</v>
       </c>
       <c r="D94" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="C95" t="s">
+        <v>348</v>
       </c>
       <c r="D95" t="s">
-        <v>273</v>
+        <v>346</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="C96" t="s">
+        <v>354</v>
       </c>
       <c r="D96" t="s">
-        <v>274</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>211</v>
+        <v>208</v>
+      </c>
+      <c r="C97" t="s">
+        <v>353</v>
       </c>
       <c r="D97" t="s">
-        <v>275</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>212</v>
+        <v>209</v>
+      </c>
+      <c r="C98" t="s">
+        <v>352</v>
       </c>
       <c r="D98" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="C99" t="s">
+        <v>351</v>
       </c>
       <c r="D99" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>214</v>
+        <v>358</v>
+      </c>
+      <c r="C100" t="s">
+        <v>359</v>
       </c>
       <c r="D100" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="C101" t="s">
+        <v>360</v>
       </c>
       <c r="D101" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>216</v>
+        <v>212</v>
+      </c>
+      <c r="C102" t="s">
+        <v>356</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="C103" t="s">
+        <v>357</v>
       </c>
       <c r="D103" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>218</v>
+        <v>214</v>
+      </c>
+      <c r="C104" t="s">
+        <v>362</v>
       </c>
       <c r="D104" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="C105" t="s">
+        <v>366</v>
       </c>
       <c r="D105" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>220</v>
+        <v>216</v>
+      </c>
+      <c r="C106" t="s">
+        <v>364</v>
       </c>
       <c r="D106" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="C107" t="s">
+        <v>367</v>
       </c>
       <c r="D107" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="C108" t="s">
+        <v>365</v>
       </c>
       <c r="D108" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>223</v>
+        <v>219</v>
+      </c>
+      <c r="C109" t="s">
+        <v>368</v>
       </c>
       <c r="D109" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>224</v>
+        <v>370</v>
+      </c>
+      <c r="C110" t="s">
+        <v>371</v>
       </c>
       <c r="D110" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>372</v>
+      </c>
+      <c r="C111" t="s">
+        <v>374</v>
       </c>
       <c r="D111" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="C112" t="s">
+        <v>375</v>
       </c>
       <c r="D112" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>221</v>
+      </c>
+      <c r="C113" t="s">
+        <v>376</v>
       </c>
       <c r="D113" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>222</v>
+      </c>
+      <c r="C114" t="s">
+        <v>378</v>
       </c>
       <c r="D114" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>223</v>
+      </c>
+      <c r="C115" t="s">
+        <v>379</v>
       </c>
       <c r="D115" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>230</v>
+        <v>224</v>
+      </c>
+      <c r="C116" t="s">
+        <v>381</v>
       </c>
       <c r="D116" t="s">
-        <v>292</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>231</v>
+        <v>225</v>
+      </c>
+      <c r="C117" t="s">
+        <v>382</v>
       </c>
       <c r="D117" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>226</v>
+      </c>
+      <c r="C118" t="s">
+        <v>383</v>
       </c>
       <c r="D118" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
+        <v>227</v>
+      </c>
+      <c r="C119" t="s">
+        <v>384</v>
       </c>
       <c r="D119" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>234</v>
+        <v>228</v>
+      </c>
+      <c r="C120" t="s">
+        <v>385</v>
       </c>
       <c r="D120" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>235</v>
+        <v>229</v>
+      </c>
+      <c r="C121" t="s">
+        <v>386</v>
       </c>
       <c r="D121" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>230</v>
+      </c>
+      <c r="C122" t="s">
+        <v>387</v>
       </c>
       <c r="D122" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
